--- a/inst/extdata/toyFiles/FROC/OK.xlsx
+++ b/inst/extdata/toyFiles/FROC/OK.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="20">
   <si>
     <t>CaseID</t>
   </si>
@@ -57,6 +57,30 @@
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>Paradigm</t>
+  </si>
+  <si>
+    <t>FROC</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>crossed</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -105,8 +129,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -155,7 +189,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -175,6 +209,11 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -194,6 +233,11 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1426,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E25"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1437,9 +1481,10 @@
     <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1455,8 +1500,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1472,8 +1523,14 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1489,8 +1546,9 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1506,16 +1564,17 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>70</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.5</v>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -1523,16 +1582,17 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>70</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.5</v>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -1540,8 +1600,9 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>71</v>
       </c>
@@ -1557,8 +1618,9 @@
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>72</v>
       </c>
@@ -1574,8 +1636,9 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>72</v>
       </c>
@@ -1591,8 +1654,9 @@
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>72</v>
       </c>
@@ -1608,16 +1672,17 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>73</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -1625,16 +1690,17 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -1642,29 +1708,41 @@
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1733,6 +1811,13 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/toyFiles/FROC/OK.xlsx
+++ b/inst/extdata/toyFiles/FROC/OK.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="19">
   <si>
     <t>CaseID</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>crossed</t>
-  </si>
-  <si>
-    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -1470,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1484,7 +1481,7 @@
     <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1503,11 +1500,8 @@
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1526,11 +1520,8 @@
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1546,9 +1537,11 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1566,7 +1559,7 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>70</v>
       </c>
@@ -1584,7 +1577,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>70</v>
       </c>
@@ -1602,7 +1595,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>71</v>
       </c>
@@ -1620,7 +1613,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>72</v>
       </c>
@@ -1638,7 +1631,7 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>72</v>
       </c>
@@ -1656,7 +1649,7 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>72</v>
       </c>
@@ -1674,7 +1667,7 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>73</v>
       </c>
@@ -1692,7 +1685,7 @@
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>73</v>
       </c>
@@ -1710,7 +1703,7 @@
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>74</v>
       </c>
@@ -1728,21 +1721,21 @@
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/inst/extdata/toyFiles/FROC/OK.xlsx
+++ b/inst/extdata/toyFiles/FROC/OK.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61BB9BA9-1084-A04B-9873-17D31D5D6DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
+    <workbookView xWindow="29020" yWindow="6520" windowWidth="22700" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
     <sheet name="FP" sheetId="2" r:id="rId2"/>
     <sheet name="TRUTH" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="19">
   <si>
     <t>CaseID</t>
   </si>
@@ -83,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,6 +251,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -563,19 +583,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -591,8 +611,12 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="J1">
+        <f ca="1">RAND()-0.5</f>
+        <v>-0.44922451776140959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -606,10 +630,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>5.28</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G10" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
+        <v>5.46</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J34" ca="1" si="1">RAND()-0.5</f>
+        <v>0.42209583080404178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -623,10 +655,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.22376011496857895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -640,10 +680,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>3.01</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.01</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.13807642340073367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -657,10 +705,18 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>5.98</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2125231998384709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -676,8 +732,12 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -685,67 +745,99 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.14</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.17971349038116557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
         <v>74</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.32</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13467617990237457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
         <v>70</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.41058139706958363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
         <v>71</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>72</v>
-      </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>3.31</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G32" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E10, 2)</f>
+        <v>3.37</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.35284878292534994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -756,13 +848,21 @@
         <v>72</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>4.92</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.72</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39605407796143488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -773,64 +873,96 @@
         <v>72</v>
       </c>
       <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.87</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39053555651018335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="E13" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.4773172774549751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
         <v>73</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.87</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37907498655255289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
         <v>74</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>70</v>
-      </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>5.3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.48</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33227543978797092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -838,16 +970,24 @@
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>4.66</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39530854159445306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -855,16 +995,24 @@
         <v>6</v>
       </c>
       <c r="C17" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>4.03</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.04</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.2860493995537513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -872,16 +1020,24 @@
         <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>5.22</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.29</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.420044091636538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -889,203 +1045,299 @@
         <v>6</v>
       </c>
       <c r="C19" s="1">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.8246802866668799E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
         <v>74</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.31</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.17651795357099653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
         <v>70</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.07</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.41787931728321981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
         <v>71</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.13</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.6183406593506318E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
         <v>72</v>
       </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4683777198070056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
         <v>73</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.16</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22760442101188461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
         <v>74</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.72</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.48661211898442458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
         <v>70</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.36621402766643452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
         <v>71</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.08</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13422282488425541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
         <v>72</v>
       </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.31</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.24273182683523165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
         <v>73</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5.39</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.53</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.35054651033529238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
         <v>74</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1">
-        <v>70</v>
-      </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>5.01</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.05</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.19742989951978285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -1093,20 +1345,71 @@
         <v>7</v>
       </c>
       <c r="C31" s="1">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.68</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.43928409920692635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
         <v>71</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2</v>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.8872614867491873E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45563956840516917</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44631231961507878</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <f ca="1">AVERAGE(J1:J34)</f>
+        <v>-6.7646418185488858E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="A25:B31 A5:B9 A3:B3 A12:B24 A2:B2 A4:B4 A10:B11" numberStoredAsText="1"/>
+    <ignoredError sqref="A7:B32 A2:B5" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1117,19 +1420,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1143,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1154,10 +1457,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.02</v>
+      </c>
+      <c r="F2">
+        <f ca="1">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1168,10 +1475,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2.17</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F23" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D3, 2)</f>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1182,10 +1493,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1196,10 +1511,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1.9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1210,10 +1529,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2.21</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1224,10 +1547,14 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1238,10 +1565,14 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2.21</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1252,10 +1583,14 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1266,10 +1601,14 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2.14</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1280,10 +1619,14 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1.98</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1294,10 +1637,14 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1.95</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1308,10 +1655,14 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>2.89</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1322,10 +1673,14 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>2.89</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1336,10 +1691,14 @@
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.84</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1350,10 +1709,14 @@
         <v>3</v>
       </c>
       <c r="D16" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1364,10 +1727,14 @@
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>3.22</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1378,10 +1745,14 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>3.01</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1392,10 +1763,14 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>1.96</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1406,10 +1781,14 @@
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>2.08</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1420,10 +1799,14 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1434,10 +1817,14 @@
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>4.01</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1448,7 +1835,11 @@
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>1.86</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>
@@ -1466,14 +1857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
@@ -1481,7 +1872,7 @@
     <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1521,7 +1912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1541,7 +1932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1559,7 +1950,7 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>70</v>
       </c>
@@ -1577,7 +1968,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>70</v>
       </c>
@@ -1595,7 +1986,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>71</v>
       </c>
@@ -1613,7 +2004,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>72</v>
       </c>
@@ -1631,7 +2022,7 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>72</v>
       </c>
@@ -1649,7 +2040,7 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>72</v>
       </c>
@@ -1667,7 +2058,7 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>73</v>
       </c>
@@ -1685,12 +2076,12 @@
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>73</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -1703,7 +2094,7 @@
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>74</v>
       </c>
@@ -1721,91 +2112,91 @@
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
